--- a/GV/FINAL/PrototiposRegistroTablero/ProtoRegistroInfoHuevo_1.xlsx
+++ b/GV/FINAL/PrototiposRegistroTablero/ProtoRegistroInfoHuevo_1.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C8E281-9C6C-4D27-AC53-FF3617B32FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Recolección" sheetId="1" r:id="rId1"/>
+    <sheet name="Venta" sheetId="4" r:id="rId2"/>
+    <sheet name="Posturas" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +26,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Postura</t>
+  </si>
+  <si>
+    <t>Kilos Recolectados</t>
+  </si>
+  <si>
+    <t>Cajas</t>
+  </si>
+  <si>
+    <t>Gallinas</t>
+  </si>
+  <si>
+    <t>Kilos Vendidos</t>
+  </si>
+  <si>
+    <t>Importe Venta</t>
+  </si>
+  <si>
+    <t>Importe Costo</t>
+  </si>
+  <si>
+    <t>Fecha Inicio Postura</t>
+  </si>
+  <si>
+    <t>Costo en Crianza</t>
+  </si>
+  <si>
+    <t>Alimento Consumido</t>
+  </si>
+  <si>
+    <t>Costo Alimento</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Costo Med. Preventivo</t>
+  </si>
+  <si>
+    <t>Costo Med. Correctivo</t>
+  </si>
+  <si>
+    <t>Costo Med. General</t>
+  </si>
+  <si>
+    <t>Fecha Inicio Pelecha</t>
+  </si>
+  <si>
+    <t>Fecha Fin Pelecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. Gallinas Inicio </t>
+  </si>
+  <si>
+    <t>No. Gallinas Fin</t>
+  </si>
+  <si>
+    <t>Incio de Postura</t>
+  </si>
+  <si>
+    <t>Pelecha</t>
+  </si>
+  <si>
+    <t>Recolección</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Costo Embalaje</t>
+  </si>
+  <si>
+    <t>No. Gallinas inicio de Postura</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +122,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,17 +187,464 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF00B050"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF00B050"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF00B050"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF00B050"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF00B0F0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF00B0F0"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +655,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{75B5F80A-109A-474D-9C24-0E2E8E6358C9}" name="Recoleccion" displayName="Recoleccion" ref="A2:M3" insertRow="1" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="A2:M3" xr:uid="{ACDE4F69-2E7D-4780-9EDB-78B01CD33BF2}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{D8FA6C26-5F8D-4A4B-A6D9-0E1E8BFCC3CA}" name="Fecha" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9995E024-0965-4868-AAA0-C4404866D704}" name="Postura" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{41539F1D-1BD5-4A2A-8DB2-193BCFBC1433}" name="Gallinas" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{60CBDD98-674D-4FF2-982F-AA26AE5AFFB2}" name="Kilos Recolectados" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{61DAC780-CDD3-4F62-90B2-6B137ACFD8C2}" name="Cajas" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{10DF5CD4-88EB-4EF8-957E-0116A0E6C8C2}" name="Costo Embalaje" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{ECB5D989-8060-4A77-88AE-4F406493E361}" name="Alimento Consumido" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{3B5D1C11-5D48-44EB-8649-9C0D4EB84C35}" name="Costo Alimento" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{9D5D6D8E-20D2-4B7E-A0E4-8F727BE1214A}" name="Costo Med. Preventivo" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{3CFA8952-A5AD-468D-BBE8-CDB930F168FD}" name="Costo Med. Correctivo" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{1062B1B1-5D88-4F54-88CE-7E643D9194C9}" name="Costo Med. General" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{88D62B2F-2787-4BD9-BEDD-0BE4687453E7}" name="Costo" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{E35F7B21-CD64-46B1-9AF7-8E2E35901621}" name="Gastos" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C184188E-FC38-4797-9C1D-43B7DB4AB1C9}" name="VentaHuevo" displayName="VentaHuevo" ref="A2:D3" insertRow="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="23" tableBorderDxfId="24">
+  <autoFilter ref="A2:D3" xr:uid="{F23EDC60-7B90-4088-BF32-7BD85E4A78F5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E7F3A772-F74D-40DD-A0AC-EF7BD43E9A94}" name="Fecha" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{E8C53785-EB63-48EC-B042-A4B7AB94293C}" name="Kilos Vendidos" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D49FABAA-A03A-4525-A0C7-1F18D990B9A6}" name="Importe Venta" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{CD54EF9F-616C-48E5-86FD-B58C4014016F}" name="Importe Costo" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63D9C2B6-D75C-43B9-8533-E050D83AA968}" name="InicoPostura" displayName="InicoPostura" ref="A2:D3" insertRow="1" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="36">
+  <autoFilter ref="A2:D3" xr:uid="{4CC6A700-C381-422B-A411-9768158758D7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6950B685-4D3F-4F97-A1E5-67F9D54895FC}" name="Postura"/>
+    <tableColumn id="2" xr3:uid="{508F22B7-9921-4BAF-816C-7138C719725B}" name="Fecha Inicio Postura"/>
+    <tableColumn id="3" xr3:uid="{E0BE62DB-BD30-46C5-A419-9EEAF2454317}" name="No. Gallinas inicio de Postura"/>
+    <tableColumn id="4" xr3:uid="{422787AD-5AC6-4B88-9FA6-184B40FDD5FA}" name="Costo en Crianza"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B870A635-0E32-4543-AF0A-74DD937B6153}" name="Pelecha" displayName="Pelecha" ref="F2:J3" insertRow="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowBorderDxfId="32" tableBorderDxfId="33">
+  <autoFilter ref="F2:J3" xr:uid="{233B1291-212B-403C-90A4-87BB13C3D049}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9687C0B7-6CF4-4735-8C16-0CD52F104F84}" name="Postura" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{7AD14025-1AEF-4F5F-85CE-45440196D529}" name="Fecha Inicio Pelecha" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{83F6717F-6FB4-40CC-BDD6-A6CC7BC96FFB}" name="No. Gallinas Inicio " dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{AA4A9996-E1E9-4B52-820A-D41FD5AD5516}" name="Fecha Fin Pelecha" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{F71A4959-FA4A-4B63-8DD9-48C2C2740684}" name="No. Gallinas Fin" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +981,254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD5B2A-3E41-44E1-BAAD-0CE11C265619}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A098C5-C39C-461A-9939-F0B87288CF83}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/GV/FINAL/PrototiposRegistroTablero/ProtoRegistroInfoHuevo_1.xlsx
+++ b/GV/FINAL/PrototiposRegistroTablero/ProtoRegistroInfoHuevo_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C8E281-9C6C-4D27-AC53-FF3617B32FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A85C4-A8B8-471A-A228-B9388C22FA5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recolección" sheetId="1" r:id="rId1"/>
@@ -263,18 +263,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,6 +275,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,6 +299,154 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF00B0F0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF00B0F0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF00B050"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF00B050"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -326,10 +474,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="7" tint="-0.249977111117893"/>
+          <color rgb="FF00B050"/>
         </left>
         <right style="thin">
-          <color theme="7" tint="-0.249977111117893"/>
+          <color rgb="FF00B050"/>
         </right>
         <top/>
         <bottom/>
@@ -430,6 +578,21 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="7" tint="-0.249977111117893"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -445,21 +608,6 @@
           <color theme="7" tint="-0.249977111117893"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="7" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -487,161 +635,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color rgb="FF00B050"/>
+          <color theme="7" tint="-0.249977111117893"/>
         </left>
         <right style="thin">
-          <color rgb="FF00B050"/>
+          <color theme="7" tint="-0.249977111117893"/>
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF00B0F0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF00B0F0"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -658,43 +658,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{75B5F80A-109A-474D-9C24-0E2E8E6358C9}" name="Recoleccion" displayName="Recoleccion" ref="A2:M3" insertRow="1" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="A2:M3" xr:uid="{ACDE4F69-2E7D-4780-9EDB-78B01CD33BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{75B5F80A-109A-474D-9C24-0E2E8E6358C9}" name="Recoleccion" displayName="Recoleccion" ref="A2:M27" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
+  <autoFilter ref="A2:M27" xr:uid="{ACDE4F69-2E7D-4780-9EDB-78B01CD33BF2}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D8FA6C26-5F8D-4A4B-A6D9-0E1E8BFCC3CA}" name="Fecha" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{9995E024-0965-4868-AAA0-C4404866D704}" name="Postura" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{41539F1D-1BD5-4A2A-8DB2-193BCFBC1433}" name="Gallinas" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{60CBDD98-674D-4FF2-982F-AA26AE5AFFB2}" name="Kilos Recolectados" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{61DAC780-CDD3-4F62-90B2-6B137ACFD8C2}" name="Cajas" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{10DF5CD4-88EB-4EF8-957E-0116A0E6C8C2}" name="Costo Embalaje" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{ECB5D989-8060-4A77-88AE-4F406493E361}" name="Alimento Consumido" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{3B5D1C11-5D48-44EB-8649-9C0D4EB84C35}" name="Costo Alimento" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{9D5D6D8E-20D2-4B7E-A0E4-8F727BE1214A}" name="Costo Med. Preventivo" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{3CFA8952-A5AD-468D-BBE8-CDB930F168FD}" name="Costo Med. Correctivo" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{1062B1B1-5D88-4F54-88CE-7E643D9194C9}" name="Costo Med. General" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{88D62B2F-2787-4BD9-BEDD-0BE4687453E7}" name="Costo" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{E35F7B21-CD64-46B1-9AF7-8E2E35901621}" name="Gastos" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D8FA6C26-5F8D-4A4B-A6D9-0E1E8BFCC3CA}" name="Fecha" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{9995E024-0965-4868-AAA0-C4404866D704}" name="Postura" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{41539F1D-1BD5-4A2A-8DB2-193BCFBC1433}" name="Gallinas" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{60CBDD98-674D-4FF2-982F-AA26AE5AFFB2}" name="Kilos Recolectados" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{61DAC780-CDD3-4F62-90B2-6B137ACFD8C2}" name="Cajas" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{10DF5CD4-88EB-4EF8-957E-0116A0E6C8C2}" name="Costo Embalaje" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{ECB5D989-8060-4A77-88AE-4F406493E361}" name="Alimento Consumido" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{3B5D1C11-5D48-44EB-8649-9C0D4EB84C35}" name="Costo Alimento" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{9D5D6D8E-20D2-4B7E-A0E4-8F727BE1214A}" name="Costo Med. Preventivo" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{3CFA8952-A5AD-468D-BBE8-CDB930F168FD}" name="Costo Med. Correctivo" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{1062B1B1-5D88-4F54-88CE-7E643D9194C9}" name="Costo Med. General" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{88D62B2F-2787-4BD9-BEDD-0BE4687453E7}" name="Costo" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{E35F7B21-CD64-46B1-9AF7-8E2E35901621}" name="Gastos" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C184188E-FC38-4797-9C1D-43B7DB4AB1C9}" name="VentaHuevo" displayName="VentaHuevo" ref="A2:D3" insertRow="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="23" tableBorderDxfId="24">
-  <autoFilter ref="A2:D3" xr:uid="{F23EDC60-7B90-4088-BF32-7BD85E4A78F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C184188E-FC38-4797-9C1D-43B7DB4AB1C9}" name="VentaHuevo" displayName="VentaHuevo" ref="A2:D22" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A2:D22" xr:uid="{F23EDC60-7B90-4088-BF32-7BD85E4A78F5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7F3A772-F74D-40DD-A0AC-EF7BD43E9A94}" name="Fecha" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{E8C53785-EB63-48EC-B042-A4B7AB94293C}" name="Kilos Vendidos" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D49FABAA-A03A-4525-A0C7-1F18D990B9A6}" name="Importe Venta" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{CD54EF9F-616C-48E5-86FD-B58C4014016F}" name="Importe Costo" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{E7F3A772-F74D-40DD-A0AC-EF7BD43E9A94}" name="Fecha" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{E8C53785-EB63-48EC-B042-A4B7AB94293C}" name="Kilos Vendidos" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D49FABAA-A03A-4525-A0C7-1F18D990B9A6}" name="Importe Venta" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{CD54EF9F-616C-48E5-86FD-B58C4014016F}" name="Importe Costo" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63D9C2B6-D75C-43B9-8533-E050D83AA968}" name="InicoPostura" displayName="InicoPostura" ref="A2:D3" insertRow="1" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="36">
-  <autoFilter ref="A2:D3" xr:uid="{4CC6A700-C381-422B-A411-9768158758D7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63D9C2B6-D75C-43B9-8533-E050D83AA968}" name="InicoPostura" displayName="InicoPostura" ref="A2:D24" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A2:D24" xr:uid="{4CC6A700-C381-422B-A411-9768158758D7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6950B685-4D3F-4F97-A1E5-67F9D54895FC}" name="Postura"/>
     <tableColumn id="2" xr3:uid="{508F22B7-9921-4BAF-816C-7138C719725B}" name="Fecha Inicio Postura"/>
@@ -706,14 +706,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B870A635-0E32-4543-AF0A-74DD937B6153}" name="Pelecha" displayName="Pelecha" ref="F2:J3" insertRow="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowBorderDxfId="32" tableBorderDxfId="33">
-  <autoFilter ref="F2:J3" xr:uid="{233B1291-212B-403C-90A4-87BB13C3D049}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B870A635-0E32-4543-AF0A-74DD937B6153}" name="Pelecha" displayName="Pelecha" ref="F2:J23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="F2:J23" xr:uid="{233B1291-212B-403C-90A4-87BB13C3D049}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9687C0B7-6CF4-4735-8C16-0CD52F104F84}" name="Postura" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{7AD14025-1AEF-4F5F-85CE-45440196D529}" name="Fecha Inicio Pelecha" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{83F6717F-6FB4-40CC-BDD6-A6CC7BC96FFB}" name="No. Gallinas Inicio " dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{AA4A9996-E1E9-4B52-820A-D41FD5AD5516}" name="Fecha Fin Pelecha" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{F71A4959-FA4A-4B63-8DD9-48C2C2740684}" name="No. Gallinas Fin" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{9687C0B7-6CF4-4735-8C16-0CD52F104F84}" name="Postura" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7AD14025-1AEF-4F5F-85CE-45440196D529}" name="Fecha Inicio Pelecha" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{83F6717F-6FB4-40CC-BDD6-A6CC7BC96FFB}" name="No. Gallinas Inicio " dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AA4A9996-E1E9-4B52-820A-D41FD5AD5516}" name="Fecha Fin Pelecha" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{F71A4959-FA4A-4B63-8DD9-48C2C2740684}" name="No. Gallinas Fin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -982,107 +982,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1097,46 +1459,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD5B2A-3E41-44E1-BAAD-0CE11C265619}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1151,74 +1627,214 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A098C5-C39C-461A-9939-F0B87288CF83}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GV/FINAL/PrototiposRegistroTablero/ProtoRegistroInfoHuevo_1.xlsx
+++ b/GV/FINAL/PrototiposRegistroTablero/ProtoRegistroInfoHuevo_1.xlsx
@@ -5,29 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A85C4-A8B8-471A-A228-B9388C22FA5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0129CEBE-8C06-424F-BC43-1FFAB1705FA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recolección" sheetId="1" r:id="rId1"/>
     <sheet name="Venta" sheetId="4" r:id="rId2"/>
     <sheet name="Posturas" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Fecha</t>
   </si>
@@ -108,13 +117,37 @@
   </si>
   <si>
     <t>No. Gallinas inicio de Postura</t>
+  </si>
+  <si>
+    <t>ASP1</t>
+  </si>
+  <si>
+    <t>ASP2</t>
+  </si>
+  <si>
+    <t>ASP3</t>
+  </si>
+  <si>
+    <t>ASP4</t>
+  </si>
+  <si>
+    <t>ASP5</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +175,19 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,10 +301,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,57 +335,66 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-      </border>
+  <dxfs count="40">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -350,81 +407,9 @@
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color theme="5"/>
+          <color rgb="FF00B050"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF00B0F0"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF00B0F0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -440,13 +425,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -484,84 +462,213 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF00B0F0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF00B0F0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -658,62 +765,85 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{75B5F80A-109A-474D-9C24-0E2E8E6358C9}" name="Recoleccion" displayName="Recoleccion" ref="A2:M27" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
-  <autoFilter ref="A2:M27" xr:uid="{ACDE4F69-2E7D-4780-9EDB-78B01CD33BF2}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D8FA6C26-5F8D-4A4B-A6D9-0E1E8BFCC3CA}" name="Fecha" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{9995E024-0965-4868-AAA0-C4404866D704}" name="Postura" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{41539F1D-1BD5-4A2A-8DB2-193BCFBC1433}" name="Gallinas" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{60CBDD98-674D-4FF2-982F-AA26AE5AFFB2}" name="Kilos Recolectados" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{61DAC780-CDD3-4F62-90B2-6B137ACFD8C2}" name="Cajas" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{10DF5CD4-88EB-4EF8-957E-0116A0E6C8C2}" name="Costo Embalaje" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{ECB5D989-8060-4A77-88AE-4F406493E361}" name="Alimento Consumido" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{3B5D1C11-5D48-44EB-8649-9C0D4EB84C35}" name="Costo Alimento" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{9D5D6D8E-20D2-4B7E-A0E4-8F727BE1214A}" name="Costo Med. Preventivo" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{3CFA8952-A5AD-468D-BBE8-CDB930F168FD}" name="Costo Med. Correctivo" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{1062B1B1-5D88-4F54-88CE-7E643D9194C9}" name="Costo Med. General" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{88D62B2F-2787-4BD9-BEDD-0BE4687453E7}" name="Costo" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{E35F7B21-CD64-46B1-9AF7-8E2E35901621}" name="Gastos" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{75B5F80A-109A-474D-9C24-0E2E8E6358C9}" name="Recoleccion" displayName="Recoleccion" ref="A2:N8" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+  <autoFilter ref="A2:N8" xr:uid="{ACDE4F69-2E7D-4780-9EDB-78B01CD33BF2}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{D8FA6C26-5F8D-4A4B-A6D9-0E1E8BFCC3CA}" name="Fecha" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{9995E024-0965-4868-AAA0-C4404866D704}" name="Postura" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{41539F1D-1BD5-4A2A-8DB2-193BCFBC1433}" name="Gallinas" dataDxfId="23" dataCellStyle="Millares"/>
+    <tableColumn id="14" xr3:uid="{75B110FF-B8C4-4B04-BBA8-E17D7351A75C}" name="Cantidad" dataDxfId="20" dataCellStyle="Millares"/>
+    <tableColumn id="4" xr3:uid="{60CBDD98-674D-4FF2-982F-AA26AE5AFFB2}" name="Kilos Recolectados" dataDxfId="21" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{61DAC780-CDD3-4F62-90B2-6B137ACFD8C2}" name="Cajas" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{10DF5CD4-88EB-4EF8-957E-0116A0E6C8C2}" name="Costo Embalaje" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{ECB5D989-8060-4A77-88AE-4F406493E361}" name="Alimento Consumido" dataDxfId="0" dataCellStyle="Millares">
+      <calculatedColumnFormula>Recoleccion[[#This Row],[Gallinas]]*0.98</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{3B5D1C11-5D48-44EB-8649-9C0D4EB84C35}" name="Costo Alimento" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{9D5D6D8E-20D2-4B7E-A0E4-8F727BE1214A}" name="Costo Med. Preventivo" dataDxfId="1" dataCellStyle="Moneda">
+      <calculatedColumnFormula>Recoleccion[[#This Row],[Gallinas]]*0.8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{3CFA8952-A5AD-468D-BBE8-CDB930F168FD}" name="Costo Med. Correctivo" dataDxfId="19" dataCellStyle="Moneda">
+      <calculatedColumnFormula>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{1062B1B1-5D88-4F54-88CE-7E643D9194C9}" name="Costo Med. General" dataDxfId="18" dataCellStyle="Moneda">
+      <calculatedColumnFormula>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{88D62B2F-2787-4BD9-BEDD-0BE4687453E7}" name="Costo" dataDxfId="17">
+      <calculatedColumnFormula>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{E35F7B21-CD64-46B1-9AF7-8E2E35901621}" name="Gastos" dataDxfId="16">
+      <calculatedColumnFormula>Recoleccion[[#This Row],[Costo]]*1.3</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C184188E-FC38-4797-9C1D-43B7DB4AB1C9}" name="VentaHuevo" displayName="VentaHuevo" ref="A2:D22" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="A2:D22" xr:uid="{F23EDC60-7B90-4088-BF32-7BD85E4A78F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C184188E-FC38-4797-9C1D-43B7DB4AB1C9}" name="VentaHuevo" displayName="VentaHuevo" ref="A2:D3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A2:D3" xr:uid="{F23EDC60-7B90-4088-BF32-7BD85E4A78F5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7F3A772-F74D-40DD-A0AC-EF7BD43E9A94}" name="Fecha" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{E8C53785-EB63-48EC-B042-A4B7AB94293C}" name="Kilos Vendidos" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{D49FABAA-A03A-4525-A0C7-1F18D990B9A6}" name="Importe Venta" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{CD54EF9F-616C-48E5-86FD-B58C4014016F}" name="Importe Costo" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{E7F3A772-F74D-40DD-A0AC-EF7BD43E9A94}" name="Fecha" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E8C53785-EB63-48EC-B042-A4B7AB94293C}" name="Kilos Vendidos" dataDxfId="4">
+      <calculatedColumnFormula>SUM(Recoleccion[Kilos Recolectados])*0.98</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D49FABAA-A03A-4525-A0C7-1F18D990B9A6}" name="Importe Venta" dataDxfId="3" dataCellStyle="Moneda">
+      <calculatedColumnFormula>VentaHuevo[[#This Row],[Kilos Vendidos]]*25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{CD54EF9F-616C-48E5-86FD-B58C4014016F}" name="Importe Costo" dataDxfId="2" dataCellStyle="Moneda">
+      <calculatedColumnFormula>SUM(Recoleccion[[Costo]:[Gastos]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63D9C2B6-D75C-43B9-8533-E050D83AA968}" name="InicoPostura" displayName="InicoPostura" ref="A2:D24" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A2:D24" xr:uid="{4CC6A700-C381-422B-A411-9768158758D7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63D9C2B6-D75C-43B9-8533-E050D83AA968}" name="InicoPostura" displayName="InicoPostura" ref="A2:D7" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
+  <autoFilter ref="A2:D7" xr:uid="{4CC6A700-C381-422B-A411-9768158758D7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6950B685-4D3F-4F97-A1E5-67F9D54895FC}" name="Postura"/>
+    <tableColumn id="1" xr3:uid="{6950B685-4D3F-4F97-A1E5-67F9D54895FC}" name="Postura" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{508F22B7-9921-4BAF-816C-7138C719725B}" name="Fecha Inicio Postura"/>
-    <tableColumn id="3" xr3:uid="{E0BE62DB-BD30-46C5-A419-9EEAF2454317}" name="No. Gallinas inicio de Postura"/>
-    <tableColumn id="4" xr3:uid="{422787AD-5AC6-4B88-9FA6-184B40FDD5FA}" name="Costo en Crianza"/>
+    <tableColumn id="3" xr3:uid="{E0BE62DB-BD30-46C5-A419-9EEAF2454317}" name="No. Gallinas inicio de Postura" dataDxfId="14" dataCellStyle="Millares"/>
+    <tableColumn id="4" xr3:uid="{422787AD-5AC6-4B88-9FA6-184B40FDD5FA}" name="Costo en Crianza" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B870A635-0E32-4543-AF0A-74DD937B6153}" name="Pelecha" displayName="Pelecha" ref="F2:J23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
-  <autoFilter ref="F2:J23" xr:uid="{233B1291-212B-403C-90A4-87BB13C3D049}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B870A635-0E32-4543-AF0A-74DD937B6153}" name="Pelecha" displayName="Pelecha" ref="F2:J7" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+  <autoFilter ref="F2:J7" xr:uid="{233B1291-212B-403C-90A4-87BB13C3D049}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9687C0B7-6CF4-4735-8C16-0CD52F104F84}" name="Postura" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7AD14025-1AEF-4F5F-85CE-45440196D529}" name="Fecha Inicio Pelecha" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{83F6717F-6FB4-40CC-BDD6-A6CC7BC96FFB}" name="No. Gallinas Inicio " dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{AA4A9996-E1E9-4B52-820A-D41FD5AD5516}" name="Fecha Fin Pelecha" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{F71A4959-FA4A-4B63-8DD9-48C2C2740684}" name="No. Gallinas Fin" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9687C0B7-6CF4-4735-8C16-0CD52F104F84}" name="Postura" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7AD14025-1AEF-4F5F-85CE-45440196D529}" name="Fecha Inicio Pelecha" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{83F6717F-6FB4-40CC-BDD6-A6CC7BC96FFB}" name="No. Gallinas Inicio " dataDxfId="12">
+      <calculatedColumnFormula>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{AA4A9996-E1E9-4B52-820A-D41FD5AD5516}" name="Fecha Fin Pelecha" dataDxfId="10">
+      <calculatedColumnFormula>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F71A4959-FA4A-4B63-8DD9-48C2C2740684}" name="No. Gallinas Fin" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -982,34 +1112,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
@@ -1025,9 +1156,10 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1" s="8"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1038,418 +1170,354 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>44191</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D3" s="14">
+        <v>101520</v>
+      </c>
+      <c r="E3" s="13">
+        <v>5770.4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>282</v>
+      </c>
+      <c r="G3" s="5">
+        <v>300</v>
+      </c>
+      <c r="H3" s="13">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
+        <v>12936</v>
+      </c>
+      <c r="I3" s="15">
+        <f>I5/H5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
+        <v>5821.2</v>
+      </c>
+      <c r="J3" s="15">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
+        <v>10560</v>
+      </c>
+      <c r="K3" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
+        <v>11616.000000000002</v>
+      </c>
+      <c r="L3" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
+        <v>9187.2000000000007</v>
+      </c>
+      <c r="M3" s="17">
+        <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
+        <v>50420.400000000009</v>
+      </c>
+      <c r="N3" s="18">
+        <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
+        <v>65546.520000000019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>44191</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14">
+        <v>12998</v>
+      </c>
+      <c r="D4" s="14">
+        <v>109440</v>
+      </c>
+      <c r="E4" s="13">
+        <v>6707.1500000000015</v>
+      </c>
+      <c r="F4" s="5">
+        <v>304</v>
+      </c>
+      <c r="G4" s="5">
+        <v>300</v>
+      </c>
+      <c r="H4" s="13">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
+        <v>12738.039999999999</v>
+      </c>
+      <c r="I4" s="15">
+        <f>I5/H5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
+        <v>5732.1179999999995</v>
+      </c>
+      <c r="J4" s="15">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
+        <v>10398.400000000001</v>
+      </c>
+      <c r="K4" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
+        <v>11438.240000000003</v>
+      </c>
+      <c r="L4" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
+        <v>9046.608000000002</v>
+      </c>
+      <c r="M4" s="17">
+        <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
+        <v>49653.406000000003</v>
+      </c>
+      <c r="N4" s="18">
+        <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
+        <v>64549.427800000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>44191</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14">
+        <v>14325</v>
+      </c>
+      <c r="D5" s="14">
+        <v>102600</v>
+      </c>
+      <c r="E5" s="13">
+        <v>6304.8499999999995</v>
+      </c>
+      <c r="F5" s="5">
+        <v>285</v>
+      </c>
+      <c r="G5" s="5">
+        <v>300</v>
+      </c>
+      <c r="H5" s="13">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
+        <v>14038.5</v>
+      </c>
+      <c r="I5" s="15">
+        <f>Recoleccion[[#This Row],[Alimento Consumido]]*0.45</f>
+        <v>6317.3249999999998</v>
+      </c>
+      <c r="J5" s="15">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
+        <v>11460</v>
+      </c>
+      <c r="K5" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
+        <v>12606.000000000002</v>
+      </c>
+      <c r="L5" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
+        <v>9970.2000000000007</v>
+      </c>
+      <c r="M5" s="17">
+        <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
+        <v>54692.025000000009</v>
+      </c>
+      <c r="N5" s="18">
+        <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
+        <v>71099.632500000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>44191</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14">
+        <v>11260</v>
+      </c>
+      <c r="D6" s="14">
+        <v>81360</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5222.3499999999995</v>
+      </c>
+      <c r="F6" s="5">
+        <v>226</v>
+      </c>
+      <c r="G6" s="5">
+        <v>300</v>
+      </c>
+      <c r="H6" s="13">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
+        <v>11034.8</v>
+      </c>
+      <c r="I6" s="15">
+        <f>I5/H5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
+        <v>4965.66</v>
+      </c>
+      <c r="J6" s="15">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
+        <v>9008</v>
+      </c>
+      <c r="K6" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
+        <v>9908.8000000000011</v>
+      </c>
+      <c r="L6" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
+        <v>7836.96</v>
+      </c>
+      <c r="M6" s="17">
+        <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
+        <v>43054.22</v>
+      </c>
+      <c r="N6" s="18">
+        <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
+        <v>55970.486000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>44191</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14">
+        <v>14325</v>
+      </c>
+      <c r="D7" s="14">
+        <v>81360</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5112.6499999999996</v>
+      </c>
+      <c r="F7" s="5">
+        <v>226</v>
+      </c>
+      <c r="G7" s="5">
+        <v>300</v>
+      </c>
+      <c r="H7" s="13">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
+        <v>14038.5</v>
+      </c>
+      <c r="I7" s="15">
+        <f>I5/H5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
+        <v>6317.3249999999998</v>
+      </c>
+      <c r="J7" s="15">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
+        <v>11460</v>
+      </c>
+      <c r="K7" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
+        <v>12606.000000000002</v>
+      </c>
+      <c r="L7" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
+        <v>9970.2000000000007</v>
+      </c>
+      <c r="M7" s="17">
+        <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
+        <v>54692.025000000009</v>
+      </c>
+      <c r="N7" s="18">
+        <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
+        <v>71099.632500000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>44197</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14">
+        <v>14325</v>
+      </c>
+      <c r="D8" s="14">
+        <v>81360</v>
+      </c>
+      <c r="E8" s="13">
+        <v>5112.6499999999996</v>
+      </c>
+      <c r="F8" s="5">
+        <v>226</v>
+      </c>
+      <c r="G8" s="5">
+        <v>300</v>
+      </c>
+      <c r="H8" s="22">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
+        <v>14038.5</v>
+      </c>
+      <c r="I8" s="15">
+        <f>I6/H6*Recoleccion[[#This Row],[Alimento Consumido]]</f>
+        <v>6317.3249999999998</v>
+      </c>
+      <c r="J8" s="23">
+        <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
+        <v>11460</v>
+      </c>
+      <c r="K8" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
+        <v>12606.000000000002</v>
+      </c>
+      <c r="L8" s="15">
+        <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
+        <v>9970.2000000000007</v>
+      </c>
+      <c r="M8" s="17">
+        <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
+        <v>54692.025000000009</v>
+      </c>
+      <c r="N8" s="18">
+        <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
+        <v>71099.632500000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1462,17 +1530,17 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +1548,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1494,121 +1562,132 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>44190</v>
+      </c>
+      <c r="B3" s="17">
+        <f>SUM(Recoleccion[Kilos Recolectados])*0.98</f>
+        <v>33545.449000000001</v>
+      </c>
+      <c r="C3" s="15">
+        <f>VentaHuevo[[#This Row],[Kilos Vendidos]]*25</f>
+        <v>838636.22499999998</v>
+      </c>
+      <c r="D3" s="15">
+        <f>SUM(Recoleccion[[Costo]:[Gastos]])</f>
+        <v>706569.43229999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1627,25 +1706,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A098C5-C39C-461A-9939-F0B87288CF83}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1739,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1689,147 +1768,272 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="12">
+        <v>43855</v>
+      </c>
+      <c r="C3" s="20">
+        <v>15000</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2567843</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="19">
+        <v>44201</v>
+      </c>
+      <c r="H3" s="17">
+        <f>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</f>
+        <v>12804</v>
+      </c>
+      <c r="I3" s="19">
+        <f>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</f>
+        <v>44236</v>
+      </c>
+      <c r="J3" s="17">
+        <v>12675.96</v>
+      </c>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12">
+        <v>43847</v>
+      </c>
+      <c r="C4" s="20">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>3467895</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="19">
+        <v>44561</v>
+      </c>
+      <c r="H4" s="17">
+        <f>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</f>
+        <v>12608.06</v>
+      </c>
+      <c r="I4" s="19">
+        <f>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</f>
+        <v>44596</v>
+      </c>
+      <c r="J4" s="17">
+        <v>12103.737599999999</v>
+      </c>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="12">
+        <v>43861</v>
+      </c>
+      <c r="C5" s="20">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>2764538</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="19">
+        <v>44224</v>
+      </c>
+      <c r="H5" s="17">
+        <f>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</f>
+        <v>13895.25</v>
+      </c>
+      <c r="I5" s="19">
+        <f>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</f>
+        <v>44259</v>
+      </c>
+      <c r="J5" s="17">
+        <v>13339.439999999999</v>
+      </c>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="12">
+        <v>43844</v>
+      </c>
+      <c r="C6" s="20">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>3001679</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="19">
+        <v>43855</v>
+      </c>
+      <c r="H6" s="17">
+        <f>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</f>
+        <v>10922.2</v>
+      </c>
+      <c r="I6" s="19">
+        <f>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</f>
+        <v>43890</v>
+      </c>
+      <c r="J6" s="17">
+        <v>9939.2020000000011</v>
+      </c>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="12">
+        <v>43838</v>
+      </c>
+      <c r="C7" s="20">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="21">
+        <v>2963787</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="19">
+        <v>44224</v>
+      </c>
+      <c r="H7" s="17">
+        <f>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</f>
+        <v>13895.25</v>
+      </c>
+      <c r="I7" s="19">
+        <f>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</f>
+        <v>44259</v>
+      </c>
+      <c r="J7" s="17">
+        <v>12922.5825</v>
+      </c>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>

--- a/GV/FINAL/PrototiposRegistroTablero/ProtoRegistroInfoHuevo_1.xlsx
+++ b/GV/FINAL/PrototiposRegistroTablero/ProtoRegistroInfoHuevo_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0129CEBE-8C06-424F-BC43-1FFAB1705FA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716249BA-0398-4DC3-B418-0EEC706D44D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recolección" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Fecha</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Gallinas Activas</t>
   </si>
 </sst>
 </file>
@@ -144,8 +147,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -323,6 +326,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,66 +350,167 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF00B0F0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF00B0F0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF00B050"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -410,21 +526,6 @@
           <color rgb="FF00B050"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -462,7 +563,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -475,7 +576,40 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -489,35 +623,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -558,7 +663,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -567,31 +672,23 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -600,93 +697,24 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF00B0F0"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF00B0F0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -765,33 +793,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{75B5F80A-109A-474D-9C24-0E2E8E6358C9}" name="Recoleccion" displayName="Recoleccion" ref="A2:N8" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
-  <autoFilter ref="A2:N8" xr:uid="{ACDE4F69-2E7D-4780-9EDB-78B01CD33BF2}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{D8FA6C26-5F8D-4A4B-A6D9-0E1E8BFCC3CA}" name="Fecha" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{9995E024-0965-4868-AAA0-C4404866D704}" name="Postura" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{41539F1D-1BD5-4A2A-8DB2-193BCFBC1433}" name="Gallinas" dataDxfId="23" dataCellStyle="Millares"/>
-    <tableColumn id="14" xr3:uid="{75B110FF-B8C4-4B04-BBA8-E17D7351A75C}" name="Cantidad" dataDxfId="20" dataCellStyle="Millares"/>
-    <tableColumn id="4" xr3:uid="{60CBDD98-674D-4FF2-982F-AA26AE5AFFB2}" name="Kilos Recolectados" dataDxfId="21" dataCellStyle="Millares"/>
-    <tableColumn id="5" xr3:uid="{61DAC780-CDD3-4F62-90B2-6B137ACFD8C2}" name="Cajas" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{10DF5CD4-88EB-4EF8-957E-0116A0E6C8C2}" name="Costo Embalaje" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{ECB5D989-8060-4A77-88AE-4F406493E361}" name="Alimento Consumido" dataDxfId="0" dataCellStyle="Millares">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{75B5F80A-109A-474D-9C24-0E2E8E6358C9}" name="Recoleccion" displayName="Recoleccion" ref="A2:O8" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
+  <autoFilter ref="A2:O8" xr:uid="{ACDE4F69-2E7D-4780-9EDB-78B01CD33BF2}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{D8FA6C26-5F8D-4A4B-A6D9-0E1E8BFCC3CA}" name="Fecha" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{9995E024-0965-4868-AAA0-C4404866D704}" name="Postura" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{41539F1D-1BD5-4A2A-8DB2-193BCFBC1433}" name="Gallinas" dataDxfId="34" dataCellStyle="Millares"/>
+    <tableColumn id="15" xr3:uid="{28CF5B2F-AB4E-4C56-8EDE-38FB4D732C9F}" name="Gallinas Activas" dataDxfId="33" dataCellStyle="Millares"/>
+    <tableColumn id="14" xr3:uid="{75B110FF-B8C4-4B04-BBA8-E17D7351A75C}" name="Cantidad" dataDxfId="32" dataCellStyle="Millares"/>
+    <tableColumn id="4" xr3:uid="{60CBDD98-674D-4FF2-982F-AA26AE5AFFB2}" name="Kilos Recolectados" dataDxfId="31" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{61DAC780-CDD3-4F62-90B2-6B137ACFD8C2}" name="Cajas" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{10DF5CD4-88EB-4EF8-957E-0116A0E6C8C2}" name="Costo Embalaje" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{ECB5D989-8060-4A77-88AE-4F406493E361}" name="Alimento Consumido" dataDxfId="28" dataCellStyle="Millares">
       <calculatedColumnFormula>Recoleccion[[#This Row],[Gallinas]]*0.98</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3B5D1C11-5D48-44EB-8649-9C0D4EB84C35}" name="Costo Alimento" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{9D5D6D8E-20D2-4B7E-A0E4-8F727BE1214A}" name="Costo Med. Preventivo" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{3B5D1C11-5D48-44EB-8649-9C0D4EB84C35}" name="Costo Alimento" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{9D5D6D8E-20D2-4B7E-A0E4-8F727BE1214A}" name="Costo Med. Preventivo" dataDxfId="26" dataCellStyle="Moneda">
       <calculatedColumnFormula>Recoleccion[[#This Row],[Gallinas]]*0.8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3CFA8952-A5AD-468D-BBE8-CDB930F168FD}" name="Costo Med. Correctivo" dataDxfId="19" dataCellStyle="Moneda">
+    <tableColumn id="10" xr3:uid="{3CFA8952-A5AD-468D-BBE8-CDB930F168FD}" name="Costo Med. Correctivo" dataDxfId="25" dataCellStyle="Moneda">
       <calculatedColumnFormula>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1062B1B1-5D88-4F54-88CE-7E643D9194C9}" name="Costo Med. General" dataDxfId="18" dataCellStyle="Moneda">
+    <tableColumn id="11" xr3:uid="{1062B1B1-5D88-4F54-88CE-7E643D9194C9}" name="Costo Med. General" dataDxfId="24" dataCellStyle="Moneda">
       <calculatedColumnFormula>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{88D62B2F-2787-4BD9-BEDD-0BE4687453E7}" name="Costo" dataDxfId="17">
+    <tableColumn id="12" xr3:uid="{88D62B2F-2787-4BD9-BEDD-0BE4687453E7}" name="Costo" dataDxfId="23">
       <calculatedColumnFormula>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E35F7B21-CD64-46B1-9AF7-8E2E35901621}" name="Gastos" dataDxfId="16">
+    <tableColumn id="13" xr3:uid="{E35F7B21-CD64-46B1-9AF7-8E2E35901621}" name="Gastos" dataDxfId="22">
       <calculatedColumnFormula>Recoleccion[[#This Row],[Costo]]*1.3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -800,17 +829,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C184188E-FC38-4797-9C1D-43B7DB4AB1C9}" name="VentaHuevo" displayName="VentaHuevo" ref="A2:D3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C184188E-FC38-4797-9C1D-43B7DB4AB1C9}" name="VentaHuevo" displayName="VentaHuevo" ref="A2:D3" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A2:D3" xr:uid="{F23EDC60-7B90-4088-BF32-7BD85E4A78F5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7F3A772-F74D-40DD-A0AC-EF7BD43E9A94}" name="Fecha" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E8C53785-EB63-48EC-B042-A4B7AB94293C}" name="Kilos Vendidos" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{E7F3A772-F74D-40DD-A0AC-EF7BD43E9A94}" name="Fecha" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E8C53785-EB63-48EC-B042-A4B7AB94293C}" name="Kilos Vendidos" dataDxfId="16">
       <calculatedColumnFormula>SUM(Recoleccion[Kilos Recolectados])*0.98</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D49FABAA-A03A-4525-A0C7-1F18D990B9A6}" name="Importe Venta" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="3" xr3:uid="{D49FABAA-A03A-4525-A0C7-1F18D990B9A6}" name="Importe Venta" dataDxfId="15" dataCellStyle="Moneda">
       <calculatedColumnFormula>VentaHuevo[[#This Row],[Kilos Vendidos]]*25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CD54EF9F-616C-48E5-86FD-B58C4014016F}" name="Importe Costo" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="4" xr3:uid="{CD54EF9F-616C-48E5-86FD-B58C4014016F}" name="Importe Costo" dataDxfId="14" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(Recoleccion[[Costo]:[Gastos]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -819,12 +848,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63D9C2B6-D75C-43B9-8533-E050D83AA968}" name="InicoPostura" displayName="InicoPostura" ref="A2:D7" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63D9C2B6-D75C-43B9-8533-E050D83AA968}" name="InicoPostura" displayName="InicoPostura" ref="A2:D7" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A2:D7" xr:uid="{4CC6A700-C381-422B-A411-9768158758D7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6950B685-4D3F-4F97-A1E5-67F9D54895FC}" name="Postura" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{6950B685-4D3F-4F97-A1E5-67F9D54895FC}" name="Postura" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{508F22B7-9921-4BAF-816C-7138C719725B}" name="Fecha Inicio Postura"/>
-    <tableColumn id="3" xr3:uid="{E0BE62DB-BD30-46C5-A419-9EEAF2454317}" name="No. Gallinas inicio de Postura" dataDxfId="14" dataCellStyle="Millares"/>
+    <tableColumn id="3" xr3:uid="{E0BE62DB-BD30-46C5-A419-9EEAF2454317}" name="No. Gallinas inicio de Postura" dataDxfId="9" dataCellStyle="Millares"/>
     <tableColumn id="4" xr3:uid="{422787AD-5AC6-4B88-9FA6-184B40FDD5FA}" name="Costo en Crianza" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -832,18 +861,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B870A635-0E32-4543-AF0A-74DD937B6153}" name="Pelecha" displayName="Pelecha" ref="F2:J7" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B870A635-0E32-4543-AF0A-74DD937B6153}" name="Pelecha" displayName="Pelecha" ref="F2:J7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="F2:J7" xr:uid="{233B1291-212B-403C-90A4-87BB13C3D049}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9687C0B7-6CF4-4735-8C16-0CD52F104F84}" name="Postura" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7AD14025-1AEF-4F5F-85CE-45440196D529}" name="Fecha Inicio Pelecha" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{83F6717F-6FB4-40CC-BDD6-A6CC7BC96FFB}" name="No. Gallinas Inicio " dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{9687C0B7-6CF4-4735-8C16-0CD52F104F84}" name="Postura" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7AD14025-1AEF-4F5F-85CE-45440196D529}" name="Fecha Inicio Pelecha" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{83F6717F-6FB4-40CC-BDD6-A6CC7BC96FFB}" name="No. Gallinas Inicio " dataDxfId="2">
       <calculatedColumnFormula>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AA4A9996-E1E9-4B52-820A-D41FD5AD5516}" name="Fecha Fin Pelecha" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{AA4A9996-E1E9-4B52-820A-D41FD5AD5516}" name="Fecha Fin Pelecha" dataDxfId="1">
       <calculatedColumnFormula>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F71A4959-FA4A-4B63-8DD9-48C2C2740684}" name="No. Gallinas Fin" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{F71A4959-FA4A-4B63-8DD9-48C2C2740684}" name="No. Gallinas Fin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1112,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,43 +1152,45 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1170,352 +1201,361 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>44191</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>13200</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
         <v>101520</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="9">
         <v>5770.4</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>282</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>300</v>
       </c>
-      <c r="H3" s="13">
+      <c r="I3" s="9">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
         <v>12936</v>
       </c>
-      <c r="I3" s="15">
-        <f>I5/H5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
+      <c r="J3" s="11">
+        <f>J5/I5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
         <v>5821.2</v>
       </c>
-      <c r="J3" s="15">
+      <c r="K3" s="11">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
         <v>10560</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
         <v>11616.000000000002</v>
       </c>
-      <c r="L3" s="15">
+      <c r="M3" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
         <v>9187.2000000000007</v>
       </c>
-      <c r="M3" s="17">
+      <c r="N3" s="13">
         <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
         <v>50420.400000000009</v>
       </c>
-      <c r="N3" s="18">
+      <c r="O3" s="14">
         <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
         <v>65546.520000000019</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>44191</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>12998</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
         <v>109440</v>
       </c>
-      <c r="E4" s="13">
+      <c r="F4" s="9">
         <v>6707.1500000000015</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>304</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>300</v>
       </c>
-      <c r="H4" s="13">
+      <c r="I4" s="9">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
         <v>12738.039999999999</v>
       </c>
-      <c r="I4" s="15">
-        <f>I5/H5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
+      <c r="J4" s="11">
+        <f>J5/I5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
         <v>5732.1179999999995</v>
       </c>
-      <c r="J4" s="15">
+      <c r="K4" s="11">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
         <v>10398.400000000001</v>
       </c>
-      <c r="K4" s="15">
+      <c r="L4" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
         <v>11438.240000000003</v>
       </c>
-      <c r="L4" s="15">
+      <c r="M4" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
         <v>9046.608000000002</v>
       </c>
-      <c r="M4" s="17">
+      <c r="N4" s="13">
         <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
         <v>49653.406000000003</v>
       </c>
-      <c r="N4" s="18">
+      <c r="O4" s="14">
         <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
         <v>64549.427800000005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>44191</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>14325</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
         <v>102600</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="9">
         <v>6304.8499999999995</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>285</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>300</v>
       </c>
-      <c r="H5" s="13">
+      <c r="I5" s="9">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
         <v>14038.5</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="11">
         <f>Recoleccion[[#This Row],[Alimento Consumido]]*0.45</f>
         <v>6317.3249999999998</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="11">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
         <v>11460</v>
       </c>
-      <c r="K5" s="15">
+      <c r="L5" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
         <v>12606.000000000002</v>
       </c>
-      <c r="L5" s="15">
+      <c r="M5" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
         <v>9970.2000000000007</v>
       </c>
-      <c r="M5" s="17">
+      <c r="N5" s="13">
         <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
         <v>54692.025000000009</v>
       </c>
-      <c r="N5" s="18">
+      <c r="O5" s="14">
         <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
         <v>71099.632500000007</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>44191</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>11260</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
         <v>81360</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="9">
         <v>5222.3499999999995</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>226</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>300</v>
       </c>
-      <c r="H6" s="13">
+      <c r="I6" s="9">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
         <v>11034.8</v>
       </c>
-      <c r="I6" s="15">
-        <f>I5/H5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
+      <c r="J6" s="11">
+        <f>J5/I5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
         <v>4965.66</v>
       </c>
-      <c r="J6" s="15">
+      <c r="K6" s="11">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
         <v>9008</v>
       </c>
-      <c r="K6" s="15">
+      <c r="L6" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
         <v>9908.8000000000011</v>
       </c>
-      <c r="L6" s="15">
+      <c r="M6" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
         <v>7836.96</v>
       </c>
-      <c r="M6" s="17">
+      <c r="N6" s="13">
         <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
         <v>43054.22</v>
       </c>
-      <c r="N6" s="18">
+      <c r="O6" s="14">
         <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
         <v>55970.486000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>44191</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>14325</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
         <v>81360</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="9">
         <v>5112.6499999999996</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>226</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>300</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="9">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
         <v>14038.5</v>
       </c>
-      <c r="I7" s="15">
-        <f>I5/H5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
+      <c r="J7" s="11">
+        <f>J5/I5*Recoleccion[[#This Row],[Alimento Consumido]]</f>
         <v>6317.3249999999998</v>
       </c>
-      <c r="J7" s="15">
+      <c r="K7" s="11">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
         <v>11460</v>
       </c>
-      <c r="K7" s="15">
+      <c r="L7" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
         <v>12606.000000000002</v>
       </c>
-      <c r="L7" s="15">
+      <c r="M7" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
         <v>9970.2000000000007</v>
       </c>
-      <c r="M7" s="17">
+      <c r="N7" s="13">
         <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
         <v>54692.025000000009</v>
       </c>
-      <c r="N7" s="18">
+      <c r="O7" s="14">
         <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
         <v>71099.632500000007</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>44197</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>14325</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
         <v>81360</v>
       </c>
-      <c r="E8" s="13">
+      <c r="F8" s="9">
         <v>5112.6499999999996</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>226</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>300</v>
       </c>
-      <c r="H8" s="22">
+      <c r="I8" s="18">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.98</f>
         <v>14038.5</v>
       </c>
-      <c r="I8" s="15">
-        <f>I6/H6*Recoleccion[[#This Row],[Alimento Consumido]]</f>
+      <c r="J8" s="11">
+        <f>J6/I6*Recoleccion[[#This Row],[Alimento Consumido]]</f>
         <v>6317.3249999999998</v>
       </c>
-      <c r="J8" s="23">
+      <c r="K8" s="19">
         <f>Recoleccion[[#This Row],[Gallinas]]*0.8</f>
         <v>11460</v>
       </c>
-      <c r="K8" s="15">
+      <c r="L8" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*1.1</f>
         <v>12606.000000000002</v>
       </c>
-      <c r="L8" s="15">
+      <c r="M8" s="11">
         <f>Recoleccion[[#This Row],[Costo Med. Preventivo]]*0.87</f>
         <v>9970.2000000000007</v>
       </c>
-      <c r="M8" s="17">
+      <c r="N8" s="13">
         <f>SUM(Recoleccion[[#This Row],[Costo Embalaje]:[Costo Med. General]])</f>
         <v>54692.025000000009</v>
       </c>
-      <c r="N8" s="18">
+      <c r="O8" s="14">
         <f>Recoleccion[[#This Row],[Costo]]*1.3</f>
         <v>71099.632500000007</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I10" s="16"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1530,7 +1570,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,12 +1581,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1563,18 +1603,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>44190</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <f>SUM(Recoleccion[Kilos Recolectados])*0.98</f>
         <v>33545.449000000001</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <f>VentaHuevo[[#This Row],[Kilos Vendidos]]*25</f>
         <v>838636.22499999998</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <f>SUM(Recoleccion[[Costo]:[Gastos]])</f>
         <v>706569.43229999999</v>
       </c>
@@ -1708,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A098C5-C39C-461A-9939-F0B87288CF83}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,19 +1765,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1772,161 +1812,161 @@
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>43855</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>15000</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <v>2567843</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="15">
         <v>44201</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="13">
         <f>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</f>
         <v>12804</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="15">
         <f>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</f>
         <v>44236</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="13">
         <v>12675.96</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <v>43847</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>15000</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>3467895</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="15">
         <v>44561</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="13">
         <f>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</f>
         <v>12608.06</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="15">
         <f>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</f>
         <v>44596</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="13">
         <v>12103.737599999999</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>43861</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>15000</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <v>2764538</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="15">
         <v>44224</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="13">
         <f>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</f>
         <v>13895.25</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="15">
         <f>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</f>
         <v>44259</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="13">
         <v>13339.439999999999</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <v>43844</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="16">
         <v>15000</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>3001679</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="15">
         <v>43855</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
         <f>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</f>
         <v>10922.2</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="15">
         <f>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</f>
         <v>43890</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="13">
         <v>9939.2020000000011</v>
       </c>
-      <c r="L6" s="16"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>43838</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="16">
         <v>15000</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>2963787</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="15">
         <v>44224</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="13">
         <f>Recoleccion[[#This Row],[Gallinas]]-Recoleccion[[#This Row],[Gallinas]]*0.03</f>
         <v>13895.25</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="15">
         <f>Pelecha[[#This Row],[Fecha Inicio Pelecha]]+35</f>
         <v>44259</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="13">
         <v>12922.5825</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F8" s="5"/>
